--- a/xlsx/武装部队_intext.xlsx
+++ b/xlsx/武装部队_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="354">
   <si>
     <t>武装部队</t>
   </si>
@@ -29,7 +29,7 @@
     <t>德国联邦国防军</t>
   </si>
   <si>
-    <t>政策_政策_美國_武装部队</t>
+    <t>政策_政策_美国_武装部队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A5%E5%85%B5</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/051B%E5%9E%8B%E9%A9%85%E9%80%90%E8%89%A6</t>
   </si>
   <si>
-    <t>051B型驅逐艦</t>
+    <t>051B型驱逐舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E5%99%A8</t>
@@ -77,31 +77,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>社會組織</t>
+    <t>社会组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E9%9A%8A</t>
   </si>
   <si>
-    <t>軍隊</t>
+    <t>军队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%96%E8%BB%8D%E4%BA%8B%E9%83%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>準軍事部隊</t>
+    <t>准军事部队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>軍事學</t>
+    <t>军事学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>聯盟</t>
+    <t>联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E4%BA%8B%E5%8C%96</t>
@@ -113,37 +113,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E8%87%AA%E8%A1%9B%E9%9A%8A</t>
   </si>
   <si>
-    <t>日本自衛隊</t>
+    <t>日本自卫队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%B8%E8%BB%8D</t>
   </si>
   <si>
-    <t>陸軍</t>
+    <t>陆军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>海軍</t>
+    <t>海军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E8%BB%8D</t>
   </si>
   <si>
-    <t>空軍</t>
+    <t>空军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%BA</t>
   </si>
   <si>
-    <t>軍人</t>
+    <t>军人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E5%AE%98</t>
   </si>
   <si>
-    <t>軍官</t>
+    <t>军官</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%AB%E5%AE%98</t>
@@ -161,21 +161,18 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E9%9A%8E</t>
   </si>
   <si>
-    <t>軍階</t>
+    <t>军阶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%8B%99%E5%BD%B9</t>
   </si>
   <si>
-    <t>義務役</t>
+    <t>义务役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%86%E5%86%9B</t>
   </si>
   <si>
-    <t>陆军</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%AA%E5%85%B5</t>
   </si>
   <si>
@@ -185,21 +182,15 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%86%9B</t>
   </si>
   <si>
-    <t>海军</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%BB%8D%E9%99%B8%E6%88%B0%E9%9A%8A</t>
   </si>
   <si>
-    <t>海軍陸戰隊</t>
+    <t>海军陆战队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E5%86%9B</t>
   </si>
   <si>
-    <t>空军</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%BC%E5%BC%B9</t>
   </si>
   <si>
@@ -245,7 +236,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%88%E5%82%99</t>
   </si>
   <si>
-    <t>守備</t>
+    <t>守备</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%89</t>
@@ -257,13 +248,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%BD%E9%9B%A3</t>
   </si>
   <si>
-    <t>災難</t>
+    <t>灾难</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E6%93%8A%E9%9A%8A</t>
   </si>
   <si>
-    <t>游擊隊</t>
+    <t>游击队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%90%E6%80%96%E5%88%86%E5%AD%90</t>
@@ -305,13 +296,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E8%A1%9B%E9%9A%8A</t>
   </si>
   <si>
-    <t>自衛隊</t>
+    <t>自卫队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>軍事</t>
+    <t>军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%80%E6%B0%8F%E9%98%B2%E5%8A%A1%E5%91%A8%E5%88%8A</t>
@@ -329,13 +320,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E8%BB%8D%E9%9A%8A</t>
   </si>
   <si>
-    <t>法國軍隊</t>
+    <t>法国军队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E8%BB%8D%E9%9A%8A</t>
   </si>
   <si>
-    <t>俄羅斯軍隊</t>
+    <t>俄罗斯军队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E5%86%9B%E9%98%9F</t>
@@ -347,19 +338,16 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E5%9C%8B%E9%98%B2%E8%BB%8D</t>
   </si>
   <si>
-    <t>以色列國防軍</t>
+    <t>以色列国防军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E8%87%AA%E5%8D%AB%E9%98%9F</t>
   </si>
   <si>
-    <t>日本自卫队</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E6%A0%B8%E6%AD%A6%E5%99%A8</t>
   </si>
   <si>
-    <t>熱核武器</t>
+    <t>热核武器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E9%9D%A2%E7%A7%AF%E5%88%97%E8%A1%A8</t>
@@ -389,13 +377,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E8%BB%8D%E9%9A%8A</t>
   </si>
   <si>
-    <t>巴西軍隊</t>
+    <t>巴西军队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E8%BB%8D%E9%9A%8A</t>
   </si>
   <si>
-    <t>印度軍隊</t>
+    <t>印度军队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E5%86%9B%E9%98%9F</t>
@@ -413,9 +401,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E4%BA%8B</t>
   </si>
   <si>
-    <t>军事</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E5%89%8D%E6%88%98%E4%BA%89</t>
   </si>
   <si>
@@ -449,13 +434,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>太空戰爭</t>
+    <t>太空战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E5%A0%B4</t>
   </si>
   <si>
-    <t>戰場</t>
+    <t>战场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%92%E5%B8%A6</t>
@@ -467,7 +452,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%B7%AF%E6%88%B0</t>
   </si>
   <si>
-    <t>網路戰</t>
+    <t>网路战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%BC%A0</t>
@@ -485,7 +470,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E9%8E%AE%E6%88%B0</t>
   </si>
   <si>
-    <t>城鎮戰</t>
+    <t>城镇战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E5%85%B5</t>
@@ -497,7 +482,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A8%8E%E5%85%B5</t>
   </si>
   <si>
-    <t>騎兵</t>
+    <t>骑兵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%85%B5</t>
@@ -515,13 +500,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%98%E5%85%B5</t>
   </si>
   <si>
-    <t>傘兵</t>
+    <t>伞兵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%9D%E7%94%B2%E6%88%B0%E9%AC%A5%E8%BB%8A%E8%BC%9B</t>
   </si>
   <si>
-    <t>裝甲戰鬥車輛</t>
+    <t>装甲战斗车辆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E7%82%AE</t>
@@ -533,19 +518,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>飛彈</t>
+    <t>飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%9D%E7%94%B2%E9%A8%8E%E5%85%B5%E5%9C%98</t>
   </si>
   <si>
-    <t>裝甲騎兵團</t>
+    <t>装甲骑兵团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>軍艦</t>
+    <t>军舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%9C%E8%89%87</t>
@@ -557,7 +542,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>戰鬥機</t>
+    <t>战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%88%B0</t>
@@ -575,7 +560,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8%E6%AD%A6%E5%99%A8</t>
   </si>
   <si>
-    <t>化學武器</t>
+    <t>化学武器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E6%88%98%E4%BA%89</t>
@@ -587,7 +572,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A6%8F%E6%A8%A1%E6%AE%BA%E5%82%B7%E6%80%A7%E6%AD%A6%E5%99%A8</t>
   </si>
   <si>
-    <t>大規模殺傷性武器</t>
+    <t>大规模杀伤性武器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E6%88%98</t>
@@ -605,13 +590,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E8%A6%8F%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>常規戰爭</t>
+    <t>常规战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%83%E6%88%B0</t>
   </si>
   <si>
-    <t>會戰</t>
+    <t>会战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%91%E5%A3%95%E6%88%98</t>
@@ -623,7 +608,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%83%E9%9B%BB%E6%88%B0</t>
   </si>
   <si>
-    <t>閃電戰</t>
+    <t>闪电战</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Unconventional_warfare</t>
@@ -635,7 +620,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%99%90%E6%88%B0</t>
   </si>
   <si>
-    <t>超限戰</t>
+    <t>超限战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%81%E5%A1%9E</t>
@@ -647,13 +632,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E6%A3%B2%E4%BD%9C%E6%88%B0</t>
   </si>
   <si>
-    <t>兩棲作戰</t>
+    <t>两栖作战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E9%99%90%E5%88%B6%E6%BD%9B%E8%89%87%E6%88%B0</t>
   </si>
   <si>
-    <t>無限制潛艇戰</t>
+    <t>无限制潜艇战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E4%BD%93%E6%88%98</t>
@@ -665,7 +650,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E9%9B%B7%E9%99%A3</t>
   </si>
   <si>
-    <t>地雷陣</t>
+    <t>地雷阵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%82%AE%E5%85%B5</t>
@@ -683,7 +668,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%B1%E6%B7%B1%E4%BD%9C%E6%88%B0</t>
   </si>
   <si>
-    <t>縱深作戰</t>
+    <t>纵深作战</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/joint_warfare</t>
@@ -707,25 +692,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E5%BC%B7%E5%BA%A6%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>低強度戰爭</t>
+    <t>低强度战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E9%82%8A%E6%88%B0%E8%A1%93</t>
   </si>
   <si>
-    <t>費邊戰術</t>
+    <t>费边战术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E4%B8%AD%E5%BF%83%E6%88%B0</t>
   </si>
   <si>
-    <t>網絡中心戰</t>
+    <t>网络中心战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E9%80%B8%E5%BE%85%E5%8B%9E</t>
   </si>
   <si>
-    <t>以逸待勞</t>
+    <t>以逸待劳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E7%95%A5</t>
@@ -737,7 +722,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%B2%E8%A1%9B%E6%88%B0</t>
   </si>
   <si>
-    <t>防衛戰</t>
+    <t>防卫战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A5%E4%BE%B5</t>
@@ -761,31 +746,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E8%A3%9D%E8%A1%9D%E7%AA%81</t>
   </si>
   <si>
-    <t>武裝衝突</t>
+    <t>武装冲突</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B8%E4%BA%92%E4%BF%9D%E8%AD%89%E6%AF%80%E6%BB%85</t>
   </si>
   <si>
-    <t>相互保證毀滅</t>
+    <t>相互保证毁灭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E7%BE%A9%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>正義戰爭</t>
+    <t>正义战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E7%95%A5%E8%BD%9F%E7%82%B8</t>
   </si>
   <si>
-    <t>戰略轟炸</t>
+    <t>战略轰炸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E9%96%93%E8%AB%9C</t>
   </si>
   <si>
-    <t>軍事間諜</t>
+    <t>军事间谍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A6%E5%9C%9F%E6%94%BF%E7%AD%96</t>
@@ -821,7 +806,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>軍事組織</t>
+    <t>军事组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E5%8F%82%E8%B0%8B%E9%83%A8</t>
@@ -833,13 +818,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%A3%E5%BD%A2</t>
   </si>
   <si>
-    <t>陣形</t>
+    <t>阵形</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9C%E6%88%B0%E5%BA%8F%E5%88%97</t>
   </si>
   <si>
-    <t>作戰序列</t>
+    <t>作战序列</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E8%A1%94</t>
@@ -857,7 +842,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E5%82%99%E8%BB%8D%E4%BA%8B%E5%8B%95%E5%93%A1</t>
   </si>
   <si>
-    <t>後備軍事動員</t>
+    <t>后备军事动员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E5%8B%A4</t>
@@ -869,7 +854,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E9%9C%80</t>
   </si>
   <si>
-    <t>軍需</t>
+    <t>军需</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A5%E7%BB%99%E7%BA%BF</t>
@@ -881,25 +866,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E5%B7%A5%E6%A5%AD%E8%A4%87%E5%90%88%E9%AB%94</t>
   </si>
   <si>
-    <t>軍事工業複合體</t>
+    <t>军事工业复合体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%BE%8C%E6%96%B9</t>
   </si>
   <si>
-    <t>大後方</t>
+    <t>大后方</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E6%B3%95%E5%AF%A9%E5%88%A4</t>
   </si>
   <si>
-    <t>軍法審判</t>
+    <t>军法审判</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E8%A3%9D%E8%A1%9D%E7%AA%81%E6%B3%95</t>
   </si>
   <si>
-    <t>武裝衝突法</t>
+    <t>武装冲突法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E4%BA%8B%E5%8D%A0%E9%A2%86</t>
@@ -923,7 +908,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B5%E5%85%B5%E5%88%B6</t>
   </si>
   <si>
-    <t>徵兵制</t>
+    <t>征兵制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%8F%98</t>
@@ -941,7 +926,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>軍政府</t>
+    <t>军政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%92%E4%B8%A5</t>
@@ -977,7 +962,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%AB%E5%AD%90%E5%85%B5%E6%B3%95</t>
   </si>
   <si>
-    <t>孫子兵法</t>
+    <t>孙子兵法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E4%BA%8B%E6%80%9D%E6%83%B3</t>
@@ -989,19 +974,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E5%8B%A4%E5%AD%B8</t>
   </si>
   <si>
-    <t>後勤學</t>
+    <t>后勤学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E6%AD%B7%E5%8F%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>軍事歷史學</t>
+    <t>军事历史学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%8D%81%E5%85%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>三十六計</t>
+    <t>三十六计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%86%9B%E4%BA%8B%E5%88%97%E8%A1%A8</t>
@@ -1013,7 +998,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E5%BD%B9%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>戰役列表</t>
+    <t>战役列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E4%BD%8D%E4%B8%BB%E4%B9%89</t>
@@ -1025,7 +1010,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E7%A8%AE%E5%B0%8D%E7%AB%8B</t>
   </si>
   <si>
-    <t>軍種對立</t>
+    <t>军种对立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E4%BA%8B%E5%8F%B2</t>
@@ -1043,9 +1028,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>戰爭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%86%E5%86%9B%E8%88%AA%E7%A9%BA%E5%85%B5</t>
   </si>
   <si>
@@ -1055,7 +1037,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%BB%8D%E8%88%AA%E7%A9%BA%E5%85%B5</t>
   </si>
   <si>
-    <t>海軍航空兵</t>
+    <t>海军航空兵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E9%99%86%E6%B5%B7%E5%86%9B</t>
@@ -1067,25 +1049,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%8B%99</t>
   </si>
   <si>
-    <t>特務</t>
+    <t>特务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B2%B8%E8%AD%A6%E5%82%99%E9%9A%8A</t>
   </si>
   <si>
-    <t>海岸警備隊</t>
+    <t>海岸警备队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E9%99%8D%E8%BB%8D</t>
   </si>
   <si>
-    <t>空降軍</t>
+    <t>空降军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E7%A8%AE%E9%83%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>特種部隊</t>
+    <t>特种部队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E8%A3%85%E5%8A%9B%E9%87%8F</t>
@@ -2190,7 +2172,7 @@
         <v>51</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -2216,10 +2198,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -2245,10 +2227,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="G28" t="n">
         <v>2</v>
@@ -2274,10 +2256,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2303,10 +2285,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2332,10 +2314,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2361,10 +2343,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -2390,10 +2372,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -2419,10 +2401,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2448,10 +2430,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G35" t="n">
         <v>3</v>
@@ -2477,10 +2459,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2506,10 +2488,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
@@ -2535,10 +2517,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2564,10 +2546,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -2593,10 +2575,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2622,10 +2604,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G41" t="n">
         <v>3</v>
@@ -2651,10 +2633,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2680,10 +2662,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G43" t="n">
         <v>22</v>
@@ -2709,10 +2691,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G44" t="n">
         <v>3</v>
@@ -2738,10 +2720,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2767,10 +2749,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G46" t="n">
         <v>4</v>
@@ -2796,10 +2778,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2825,10 +2807,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -2854,10 +2836,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G49" t="n">
         <v>12</v>
@@ -2883,10 +2865,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -2912,10 +2894,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2941,10 +2923,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2970,10 +2952,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2999,10 +2981,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3028,10 +3010,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3057,10 +3039,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3086,10 +3068,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3115,10 +3097,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>3</v>
@@ -3144,10 +3126,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3173,10 +3155,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3202,10 +3184,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F61" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3231,10 +3213,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3260,10 +3242,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3289,10 +3271,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3318,10 +3300,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3347,10 +3329,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>6</v>
@@ -3376,10 +3358,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="G67" t="n">
         <v>10</v>
@@ -3405,10 +3387,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3434,10 +3416,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3463,10 +3445,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3521,10 +3503,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F72" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3550,10 +3532,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F73" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3579,10 +3561,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F74" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3608,10 +3590,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F75" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3637,10 +3619,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3666,10 +3648,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3695,10 +3677,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3724,10 +3706,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3753,10 +3735,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3782,10 +3764,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3811,10 +3793,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3840,10 +3822,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3869,10 +3851,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3898,10 +3880,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -3927,10 +3909,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3956,10 +3938,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3985,10 +3967,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4014,10 +3996,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4043,10 +4025,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4072,10 +4054,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4101,10 +4083,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4130,10 +4112,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4159,10 +4141,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4188,10 +4170,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4217,10 +4199,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4246,10 +4228,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4275,10 +4257,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4304,10 +4286,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -4333,10 +4315,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -4362,10 +4344,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4391,10 +4373,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4420,10 +4402,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4449,10 +4431,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4478,10 +4460,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4507,10 +4489,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4536,10 +4518,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4565,10 +4547,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4594,10 +4576,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4623,10 +4605,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4652,10 +4634,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4681,10 +4663,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4710,10 +4692,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4739,10 +4721,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4768,10 +4750,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4797,10 +4779,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4826,10 +4808,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4855,10 +4837,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4884,10 +4866,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4913,10 +4895,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4942,10 +4924,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4971,10 +4953,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G122" t="n">
         <v>25</v>
@@ -5000,10 +4982,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5029,10 +5011,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5058,10 +5040,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5087,10 +5069,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -5116,10 +5098,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -5145,10 +5127,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5174,10 +5156,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5203,10 +5185,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5232,10 +5214,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5261,10 +5243,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5290,10 +5272,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5319,10 +5301,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5348,10 +5330,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5377,10 +5359,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5406,10 +5388,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -5435,10 +5417,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5464,10 +5446,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5493,10 +5475,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5522,10 +5504,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5551,10 +5533,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5580,10 +5562,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5609,10 +5591,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5667,10 +5649,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F146" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5696,10 +5678,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F147" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5725,10 +5707,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F148" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5754,10 +5736,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F149" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5783,10 +5765,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F150" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5812,10 +5794,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F151" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5841,10 +5823,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F152" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5870,10 +5852,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F153" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5899,10 +5881,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F154" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5928,10 +5910,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F155" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5957,10 +5939,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F156" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5986,10 +5968,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F157" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6015,10 +5997,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F158" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6044,10 +6026,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F159" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6073,10 +6055,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F160" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6102,10 +6084,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F161" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6131,10 +6113,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F162" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6189,10 +6171,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F164" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6218,10 +6200,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F165" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6247,10 +6229,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F166" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6276,10 +6258,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F167" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6305,10 +6287,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F168" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6334,10 +6316,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F169" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6363,10 +6345,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F170" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6392,10 +6374,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F171" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6421,10 +6403,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F172" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6450,10 +6432,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F173" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6479,10 +6461,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F174" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6508,10 +6490,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F175" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6537,10 +6519,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F176" t="s">
-        <v>342</v>
+        <v>126</v>
       </c>
       <c r="G176" t="n">
         <v>8</v>
@@ -6595,10 +6577,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F178" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6653,10 +6635,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F180" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6682,10 +6664,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F181" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6711,10 +6693,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F182" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6769,10 +6751,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F184" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6798,10 +6780,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F185" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6827,10 +6809,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F186" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6856,10 +6838,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F187" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -6885,10 +6867,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F188" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G188" t="n">
         <v>7</v>
@@ -6914,10 +6896,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F189" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
